--- a/docs/excel/Items.xlsx
+++ b/docs/excel/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
+    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -129,20 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TableName: "ItemBaseData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +310,10 @@
   </si>
   <si>
     <t>御品用于装饰或礼物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Items" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
@@ -885,10 +875,10 @@
         <v>10001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -908,10 +898,10 @@
         <v>20001</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -931,10 +921,10 @@
         <v>30001</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -946,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G69" si="0">F7*10</f>
+        <f t="shared" ref="G7:G27" si="0">F7*10</f>
         <v>0</v>
       </c>
     </row>
@@ -955,10 +945,10 @@
         <v>40001</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -979,10 +969,10 @@
         <v>50001</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1003,10 +993,10 @@
         <v>50002</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1027,10 +1017,10 @@
         <v>50003</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1051,10 +1041,10 @@
         <v>50004</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1075,10 +1065,10 @@
         <v>50005</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1099,10 +1089,10 @@
         <v>50006</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1123,10 +1113,10 @@
         <v>60001</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1147,10 +1137,10 @@
         <v>60002</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1171,10 +1161,10 @@
         <v>60003</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1195,10 +1185,10 @@
         <v>60004</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1219,10 +1209,10 @@
         <v>60005</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1243,10 +1233,10 @@
         <v>60006</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1267,10 +1257,10 @@
         <v>60007</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1291,10 +1281,10 @@
         <v>60008</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1315,10 +1305,10 @@
         <v>70001</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1339,10 +1329,10 @@
         <v>70002</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1363,10 +1353,10 @@
         <v>70003</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1387,10 +1377,10 @@
         <v>70004</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1411,10 +1401,10 @@
         <v>70005</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1920,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1928,7 +1918,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
